--- a/Data/Transitions/19581973Translation.xlsx
+++ b/Data/Transitions/19581973Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="663">
   <si>
     <t>id</t>
   </si>
@@ -595,7 +595,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{320.0: 1.0, 242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1697,6 +1697,9 @@
   </si>
   <si>
     <t>{315.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{320.0: 0.43431836980224076, 242.0: 0.5656816301977592}</t>
   </si>
   <si>
     <t>{400.0: 0.9874941009910335, 50.0: 0.008788675988621757, 96.0: 0.0017704710454288894, 100.0: 0.0019467519749158475}</t>
@@ -4472,7 +4475,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>561</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4505,7 +4508,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4516,7 +4519,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4527,7 +4530,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4549,7 +4552,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4593,7 +4596,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4659,7 +4662,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4703,7 +4706,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4714,7 +4717,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4736,7 +4739,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4813,7 +4816,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4857,7 +4860,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4879,7 +4882,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4923,7 +4926,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4934,7 +4937,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4945,7 +4948,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4956,7 +4959,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5099,7 +5102,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5110,7 +5113,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5154,7 +5157,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5165,7 +5168,7 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5242,7 +5245,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5253,7 +5256,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5286,7 +5289,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5308,7 +5311,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5319,7 +5322,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5330,7 +5333,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5363,7 +5366,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5396,7 +5399,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5407,7 +5410,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5440,7 +5443,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5462,7 +5465,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5473,7 +5476,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5495,7 +5498,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5517,7 +5520,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5539,7 +5542,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5594,7 +5597,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5627,7 +5630,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5715,7 +5718,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5726,7 +5729,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5759,7 +5762,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5781,7 +5784,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5847,7 +5850,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5869,7 +5872,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5880,7 +5883,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5902,7 +5905,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5957,7 +5960,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5979,7 +5982,7 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6045,7 +6048,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6056,7 +6059,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6067,7 +6070,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6078,7 +6081,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6089,7 +6092,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6144,7 +6147,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6166,7 +6169,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6177,7 +6180,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6210,7 +6213,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6221,7 +6224,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6265,7 +6268,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6298,7 +6301,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6342,7 +6345,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6353,7 +6356,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6386,7 +6389,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6408,7 +6411,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6441,7 +6444,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6485,7 +6488,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6716,7 +6719,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6760,7 +6763,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6771,7 +6774,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6804,7 +6807,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6815,7 +6818,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6826,7 +6829,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6837,7 +6840,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6848,7 +6851,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6870,7 +6873,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6914,7 +6917,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6936,7 +6939,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6958,7 +6961,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6980,7 +6983,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7035,7 +7038,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7090,7 +7093,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7101,7 +7104,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7112,7 +7115,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7167,7 +7170,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7178,7 +7181,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7189,7 +7192,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7200,7 +7203,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7211,7 +7214,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7222,7 +7225,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7244,7 +7247,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7343,7 +7346,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7376,7 +7379,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7409,7 +7412,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7442,7 +7445,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7475,7 +7478,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7497,7 +7500,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7519,7 +7522,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7541,7 +7544,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7552,7 +7555,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7574,7 +7577,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7585,7 +7588,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7684,7 +7687,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
